--- a/WiiRobot/backlog.xlsx
+++ b/WiiRobot/backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cveil\Desktop\Objets_conn\Atelier_objet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\533\Documents\GitHub\WiiRobot\WiiRobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1855801F-9AF4-4763-93BE-C1E6788EC83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60070B17-F43A-4A4A-BC4A-92F9C8C51457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,23 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>En tant qu'utilisateur je veux pouvoir contrôler la pince du robot à l'aide des boutons A et B de la manette de Wii</t>
-  </si>
-  <si>
-    <t>La manette de wii doit pouvoir intéragir avec le robot.</t>
-  </si>
-  <si>
-    <t>Le bouton A doit ouvrir la Pince du robot</t>
-  </si>
-  <si>
-    <t>Le bouton B doit fermer la pince du robot</t>
-  </si>
-  <si>
     <t>En tant qu'utilisateur je veux pouvoir faire bouger le bras du robot de haut en bas avec la manette de Wii</t>
   </si>
   <si>
@@ -65,21 +51,6 @@
     <t>En tant qu'utilisateur je veux pouvoir faire bouger le bras du robot de gauche à droite avec la manette de Wii</t>
   </si>
   <si>
-    <t>Le bras du robot bouge vers la gauche en appuyant sur la flèche de gauche sur la manette de Wii</t>
-  </si>
-  <si>
-    <t>Le bras du robot bouge vers la droite en appuyant sur la flèche de droite sur la manette de Wii</t>
-  </si>
-  <si>
-    <t>En tant qu'utilisateur, je veux pouvoir faire une rotation de la pince à l'aide des boutons + et - sur la manette de Wii</t>
-  </si>
-  <si>
-    <t>La pince du robot effectue une rotation vers la droite lorque j'appuie sur le bouton + sur la manette de Wii</t>
-  </si>
-  <si>
-    <t>La pince du robot effectue une rotation vers la gauche lorsque j'appuie sur le bouton - sur la manette de Wii</t>
-  </si>
-  <si>
     <t>Ordre</t>
   </si>
   <si>
@@ -101,9 +72,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>En tant qu'utilisateur je veux pouvoir contrôler le convoyeur avec les boutons 1 et 2 de la manette de Wii</t>
   </si>
   <si>
@@ -116,22 +84,28 @@
     <t>En relachant les bouton 1 ou 2, le convoyeur s'arrête.</t>
   </si>
   <si>
-    <t>(Story potentielle si le temps le permet) En tant qu'utilisateur, je souhaite contrôler les mouvements du robot avec la motion de la manette de wii</t>
-  </si>
-  <si>
-    <t>En pointant la manette vers le haut, le bras du robot bouge vers le haut</t>
-  </si>
-  <si>
-    <t>En pointant la manette vers le bas, le bras du robot bouge vers le bas</t>
-  </si>
-  <si>
-    <t>En pointant la manette vers la gauche, le bras du robot bouge vers la gauche</t>
-  </si>
-  <si>
-    <t>En pointant la manette vers la droite, le bras du robot bouge vers la droite</t>
-  </si>
-  <si>
-    <t>6(potentiel)</t>
+    <t>Lâcher le bouton B doit ouvrir la pince du robot</t>
+  </si>
+  <si>
+    <t>Le bras du robot bouge vers la gauche en tournant à gauche sur la manette de Wii</t>
+  </si>
+  <si>
+    <t>Le bras du robot bouge vers la gauche en tournant à droite sur la manette de Wii</t>
+  </si>
+  <si>
+    <t>Le bras du robot bouge vers le devant en tournant vers le haut la manette de Wii</t>
+  </si>
+  <si>
+    <t>Le bras du robot bouge vers le derrière en tournant vers le derrière la manette de Wii</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je veux pouvoir faire bouger le bras du robot de devant à derrière avec la manette de Wii</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je veux pouvoir contrôler la pince du robot à l'aide du bouton B de la manette de Wii</t>
+  </si>
+  <si>
+    <t>Appuyer sur le bouton B doit fermer la Pince du robot</t>
   </si>
 </sst>
 </file>
@@ -190,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -260,23 +234,10 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -289,38 +250,12 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -353,63 +288,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -425,31 +308,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,40 +603,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="127.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="127.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:33" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:33" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="3" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="3" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -773,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -804,211 +677,211 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="1">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="E6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="1">
+    </row>
+    <row r="9" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>3</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>3</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>4</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>5</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13" t="s">
+    <row r="16" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>5</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>22</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1039,122 +912,26 @@
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>6</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/WiiRobot/backlog.xlsx
+++ b/WiiRobot/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\533\Documents\GitHub\WiiRobot\WiiRobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60070B17-F43A-4A4A-BC4A-92F9C8C51457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62EBA75-2F0D-4C30-8458-A149BAA2EBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +641,9 @@
         <v>1</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="C3" s="10">
+        <v>3</v>
+      </c>
       <c r="D3" s="10">
         <v>1</v>
       </c>
@@ -704,7 +706,9 @@
         <v>2</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
@@ -767,7 +771,9 @@
         <v>3</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="16">
+        <v>8</v>
+      </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
@@ -830,7 +836,9 @@
         <v>3</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="C12" s="16">
+        <v>8</v>
+      </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
@@ -865,7 +873,9 @@
         <v>5</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="16">
+        <v>3</v>
+      </c>
       <c r="D15" s="1">
         <v>5</v>
       </c>

--- a/WiiRobot/backlog.xlsx
+++ b/WiiRobot/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\533\Documents\GitHub\WiiRobot\WiiRobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62EBA75-2F0D-4C30-8458-A149BAA2EBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1F4944-3411-40CA-B1A6-5239AC6E2333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,23 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>En tant qu'utilisateur je veux pouvoir faire bouger le bras du robot de haut en bas avec la manette de Wii</t>
-  </si>
-  <si>
     <t>Le bras du robot bouge vers le haut en appuyant sur la flèche du haut sur la manette de Wii</t>
   </si>
   <si>
     <t>Le bras du robot bouge vers le bas en appuyant sur la flèche du bas sur la manette de Wii</t>
   </si>
   <si>
-    <t>En tant qu'utilisateur je veux pouvoir faire bouger le bras du robot de gauche à droite avec la manette de Wii</t>
-  </si>
-  <si>
     <t>Ordre</t>
   </si>
   <si>
@@ -75,18 +69,6 @@
     <t>En tant qu'utilisateur je veux pouvoir contrôler le convoyeur avec les boutons 1 et 2 de la manette de Wii</t>
   </si>
   <si>
-    <t>En appuyant et maintenant le bouton 1, le convoyeur s'active dans une direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En appuyant et maintenant le bouton 2 le convoyeur s'active dans l'autre direction. </t>
-  </si>
-  <si>
-    <t>En relachant les bouton 1 ou 2, le convoyeur s'arrête.</t>
-  </si>
-  <si>
-    <t>Lâcher le bouton B doit ouvrir la pince du robot</t>
-  </si>
-  <si>
     <t>Le bras du robot bouge vers la gauche en tournant à gauche sur la manette de Wii</t>
   </si>
   <si>
@@ -102,10 +84,37 @@
     <t>En tant qu'utilisateur je veux pouvoir faire bouger le bras du robot de devant à derrière avec la manette de Wii</t>
   </si>
   <si>
-    <t>En tant qu'utilisateur je veux pouvoir contrôler la pince du robot à l'aide du bouton B de la manette de Wii</t>
-  </si>
-  <si>
-    <t>Appuyer sur le bouton B doit fermer la Pince du robot</t>
+    <t>Appuyer sur le bouton (-) doit fermer la Pince du robot</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je veux pouvoir contrôler la pince du robot à l'aide du bouton - et + de la manette de Wii</t>
+  </si>
+  <si>
+    <t>Appuyer sur le bouton (+) doit fermer la Pince du robot</t>
+  </si>
+  <si>
+    <t>Il faut appuiyer sur A pour que le robot bouge</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je veux pouvoir faire bouger le bras du robot de haut en bas avec la manette de Wii (axe Z)</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je veux pouvoir faire bouger le bras du robot de gauche à droite avec la manette de Wii (axe X)</t>
+  </si>
+  <si>
+    <t>Je veux pouvoir me repososionner automatiquement avec le bouton ''Home'' de la manette de Wii</t>
+  </si>
+  <si>
+    <t>En appuyant le bouton 1, le convoyeur s'active dans une direction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En appuyant le bouton 2 le convoyeur s'active dans l'autre direction. </t>
+  </si>
+  <si>
+    <t>En appuyant le bouton "Home", le convoyeur s'arrête</t>
+  </si>
+  <si>
+    <t>En appuyant le bouton "Home", le robot se positionne sur une position de repo</t>
   </si>
 </sst>
 </file>
@@ -164,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -260,13 +269,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -277,22 +286,33 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -321,8 +341,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,16 +645,16 @@
     <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:33" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>0</v>
@@ -648,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -682,23 +706,23 @@
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="8" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -713,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -747,23 +771,23 @@
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -778,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -812,78 +836,74 @@
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>4</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13" t="s">
-        <v>19</v>
+      <c r="E13" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>5</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
         <v>9</v>
@@ -891,57 +911,109 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>5</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19" t="s">
-        <v>15</v>
+    </row>
+    <row r="18" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>6</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="21">
+        <v>5</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/WiiRobot/backlog.xlsx
+++ b/WiiRobot/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\533\Documents\GitHub\WiiRobot\WiiRobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1F4944-3411-40CA-B1A6-5239AC6E2333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441CC1F3-88CF-4004-89AC-0E22A69CF7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Description</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>En appuyant le bouton "Home", le robot se positionne sur une position de repo</t>
+  </si>
+  <si>
+    <t>Je veux pouvoir me tourner la pince du robot avec la manette de Wii</t>
+  </si>
+  <si>
+    <t>Je veux pouvoir me tourner la pince vers la gauche du robot avec le bouton de flèche gauche la manette de Wii</t>
+  </si>
+  <si>
+    <t>Je veux pouvoir me tourner la pince vers la droite du robot avec le bouton de flèche droite la manette de Wii</t>
   </si>
 </sst>
 </file>
@@ -627,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,6 +1025,43 @@
         <v>26</v>
       </c>
     </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>7</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20">
+        <v>3</v>
+      </c>
+      <c r="D23" s="21">
+        <v>5</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WiiRobot/backlog.xlsx
+++ b/WiiRobot/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\533\Documents\GitHub\WiiRobot\WiiRobot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441CC1F3-88CF-4004-89AC-0E22A69CF7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237507C9-7932-4383-B4A5-A7EFDD670A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Description</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Je veux pouvoir me tourner la pince vers la droite du robot avec le bouton de flèche droite la manette de Wii</t>
+  </si>
+  <si>
+    <t>Le convoyeur s'arrète lorsqu'aucun bouton n'est appuiyer.</t>
   </si>
 </sst>
 </file>
@@ -636,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,7 +980,7 @@
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="18" t="s">
         <v>8</v>
@@ -987,78 +990,117 @@
       <c r="E19" s="19" t="s">
         <v>24</v>
       </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A20" s="20">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
         <v>6</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20">
         <v>3</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D21" s="21">
         <v>5</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E21" s="20" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
         <v>7</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20">
         <v>3</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D24" s="21">
         <v>5</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E24" s="20" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23" t="s">
         <v>29</v>
       </c>
     </row>
